--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2715.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2715.xlsx
@@ -354,7 +354,7 @@
         <v>2.405276503800478</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.353146804432507</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2715.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2715.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167652685804098</v>
+        <v>1.497786283493042</v>
       </c>
       <c r="B1">
-        <v>2.405276503800478</v>
+        <v>3.811347961425781</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.741596460342407</v>
       </c>
       <c r="D1">
-        <v>2.353146804432507</v>
+        <v>0.7987833619117737</v>
       </c>
       <c r="E1">
-        <v>1.213967724362726</v>
+        <v>1.073408007621765</v>
       </c>
     </row>
   </sheetData>
